--- a/biology/Botanique/Trèfle_jaune/Trèfle_jaune.xlsx
+++ b/biology/Botanique/Trèfle_jaune/Trèfle_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_jaune</t>
+          <t>Trèfle_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_jaune</t>
+          <t>Trèfle_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trèfle jaune est un nom vernaculaire donné spontanément à la plupart des espèces de trèfles dont les fleurs sont jaunes. Néanmoins, malgré un nombre important de telles espèces de trèfles à fleurs jaunes, l'appellation trèfle jaune est réservée généralement :
 à Trifolium aureum, nommé également Trèfle doré
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_jaune</t>
+          <t>Trèfle_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Attention à ne pas confondre les trèfles jaunes avec des lotiers ou des luzernes à fleurs jaunes. La confusion est facile.
 D'ailleurs Anthyllis vulneraria, l'anthyllide vulnéraire est parfois appelé Trèfle jaune, par analogie.
